--- a/xlsx/索洛模型_intext.xlsx
+++ b/xlsx/索洛模型_intext.xlsx
@@ -29,7 +29,7 @@
     <t>新古典经济学</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_索洛模型</t>
+    <t>政策_政策_货币政策_索洛模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
